--- a/Datas/Tables/UIWnd.xlsx
+++ b/Datas/Tables/UIWnd.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>##var</t>
   </si>
@@ -44,9 +44,6 @@
     <t>DestroyOnHide</t>
   </si>
   <si>
-    <t>nini</t>
-  </si>
-  <si>
     <t>##type</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>bool</t>
   </si>
   <si>
-    <t>short</t>
-  </si>
-  <si>
     <t>##group</t>
   </si>
   <si>
@@ -84,9 +78,6 @@
   </si>
   <si>
     <t>MainUI/StartPanel</t>
-  </si>
-  <si>
-    <t>CommonPanel</t>
   </si>
 </sst>
 </file>
@@ -1030,13 +1021,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="22.125" customWidth="1"/>
     <col min="3" max="3" width="21.25" customWidth="1"/>
@@ -1047,7 +1038,7 @@
     <col min="11" max="11" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1063,85 +1054,71 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C5" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="2:6">
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
+    <row r="6" customFormat="1" spans="2:2">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Datas/Tables/UIWnd.xlsx
+++ b/Datas/Tables/UIWnd.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>##var</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>MainUI/StartPanel</t>
+  </si>
+  <si>
+    <t>SelectCanvas</t>
+  </si>
+  <si>
+    <t>MainUI/SelectCanvas</t>
   </si>
 </sst>
 </file>
@@ -1024,7 +1030,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1108,8 +1114,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="2:2">
-      <c r="B6" s="1"/>
+    <row r="6" customFormat="1" spans="2:5">
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="1"/>

--- a/Datas/Tables/UIWnd.xlsx
+++ b/Datas/Tables/UIWnd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>##var</t>
   </si>
@@ -84,6 +84,24 @@
   </si>
   <si>
     <t>MainUI/SelectCanvas</t>
+  </si>
+  <si>
+    <t>TestPanel1</t>
+  </si>
+  <si>
+    <t>MainUI/TestPanel1</t>
+  </si>
+  <si>
+    <t>TestPanel2</t>
+  </si>
+  <si>
+    <t>MainUI/TestPanel2</t>
+  </si>
+  <si>
+    <t>TestPanel3</t>
+  </si>
+  <si>
+    <t>MainUI/TestPanel3</t>
   </si>
 </sst>
 </file>
@@ -1030,7 +1048,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1128,14 +1146,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="1"/>
+    <row r="7" customFormat="1" spans="2:5">
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="1"/>
+    <row r="8" customFormat="1" spans="2:5">
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="1"/>
+    <row r="9" customFormat="1" spans="2:5">
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Datas/Tables/UIWnd.xlsx
+++ b/Datas/Tables/UIWnd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>##var</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>MainUI/TestPanel3</t>
+  </si>
+  <si>
+    <t>TestPanel4</t>
+  </si>
+  <si>
+    <t>MainUI/TestPanel4</t>
   </si>
 </sst>
 </file>
@@ -1045,10 +1051,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1182,9 +1188,23 @@
         <v>24</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Datas/Tables/UIWnd.xlsx
+++ b/Datas/Tables/UIWnd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12975"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>##var</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>##group</t>
+  </si>
+  <si>
+    <t>index</t>
   </si>
   <si>
     <t>##</t>
@@ -1054,7 +1057,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1102,34 +1105,37 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1140,10 +1146,10 @@
     </row>
     <row r="6" customFormat="1" spans="2:5">
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1154,10 +1160,10 @@
     </row>
     <row r="7" customFormat="1" spans="2:5">
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1168,10 +1174,10 @@
     </row>
     <row r="8" customFormat="1" spans="2:5">
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1182,10 +1188,10 @@
     </row>
     <row r="9" customFormat="1" spans="2:5">
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -1196,10 +1202,10 @@
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10">
         <v>3</v>
